--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\dist-heat\BFoHfC\MEX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BFoHfC" sheetId="3" r:id="rId3"/>
+    <sheet name="BFoHfC" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>BFoHfC BAU Fraction of Heat from CHP</t>
   </si>
@@ -66,16 +71,55 @@
     <t>breakdown of CHP vs. non-CHP.</t>
   </si>
   <si>
-    <t>Fraction of Heat from CHP</t>
-  </si>
-  <si>
-    <t>District heating</t>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>We do not have data on how CHP fraction varies by fuel type,</t>
+  </si>
+  <si>
+    <t>so we assume the overall CHP fraction applies to all fuel types.</t>
+  </si>
+  <si>
+    <t>It does not matter if some of these fuel types are not used</t>
+  </si>
+  <si>
+    <t>for district heat; the fraction of each fuel that is used is</t>
+  </si>
+  <si>
+    <t>governed by another input variable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Mexico, the CHP/DHC Country Socrecard is been developed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As there is no other available source that covers this information, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we decided to use US values, since CHP technology  is similar for both countries. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -136,7 +180,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -148,9 +192,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -164,12 +212,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,9 +295,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,21 +540,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,24 +564,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +653,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
@@ -595,27 +739,992 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="8">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="8">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="8">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="8">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="8">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="8">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="8">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="8">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="8">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="8">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="8">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="8">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="8">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="8">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="8">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6">
-        <f>Data!A6</f>
+      <c r="B3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ7">
+        <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
     </row>

--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\dist-heat\BFoHfC\MEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\dist-heat\BFoHfC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BFoHfC" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>BFoHfC BAU Fraction of Heat from CHP</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>We do not have data on how CHP fraction varies by fuel type,</t>
-  </si>
-  <si>
-    <t>so we assume the overall CHP fraction applies to all fuel types.</t>
-  </si>
-  <si>
     <t>It does not matter if some of these fuel types are not used</t>
   </si>
   <si>
@@ -107,13 +101,28 @@
     <t>governed by another input variable.</t>
   </si>
   <si>
-    <t xml:space="preserve">For Mexico, the CHP/DHC Country Socrecard is been developed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As there is no other available source that covers this information, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">we decided to use US values, since CHP technology  is similar for both countries. </t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>We do not have data on how Combined Heat and Power (CHP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fraction varies by fuel type.</t>
+  </si>
+  <si>
+    <t>So we assume the overall CHP fraction applies to all fuel types.</t>
+  </si>
+  <si>
+    <t>Fraction of Heat from CHP (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -192,13 +201,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -220,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -295,23 +306,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -347,23 +341,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,23 +517,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -564,81 +541,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +608,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
@@ -739,126 +694,130 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C1">
         <v>2016</v>
       </c>
-      <c r="C1" s="8">
+      <c r="D1" s="7">
         <v>2017</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2018</v>
       </c>
-      <c r="E1" s="8">
+      <c r="F1" s="7">
         <v>2019</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2020</v>
       </c>
-      <c r="G1" s="8">
+      <c r="H1" s="7">
         <v>2021</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2022</v>
       </c>
-      <c r="I1" s="8">
+      <c r="J1" s="7">
         <v>2023</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2024</v>
       </c>
-      <c r="K1" s="8">
+      <c r="L1" s="7">
         <v>2025</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2026</v>
       </c>
-      <c r="M1" s="8">
+      <c r="N1" s="7">
         <v>2027</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2028</v>
       </c>
-      <c r="O1" s="8">
+      <c r="P1" s="7">
         <v>2029</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2030</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="R1" s="7">
         <v>2031</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2032</v>
       </c>
-      <c r="S1" s="8">
+      <c r="T1" s="7">
         <v>2033</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2034</v>
       </c>
-      <c r="U1" s="8">
+      <c r="V1" s="7">
         <v>2035</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2036</v>
       </c>
-      <c r="W1" s="8">
+      <c r="X1" s="7">
         <v>2037</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2038</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Z1" s="7">
         <v>2039</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2040</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AB1" s="7">
         <v>2041</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2042</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AD1" s="7">
         <v>2043</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2044</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AF1" s="7">
         <v>2045</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2046</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AH1" s="7">
         <v>2047</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>2048</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AJ1" s="7">
         <v>2049</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1002,8 +961,12 @@
         <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK2">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1147,8 +1110,12 @@
         <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1292,8 +1259,12 @@
         <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1437,8 +1408,12 @@
         <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK5">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1582,8 +1557,12 @@
         <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1724,6 +1703,606 @@
         <v>0.50623017079495658</v>
       </c>
       <c r="AJ7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK7">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK8">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK9">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK10">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="C11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="D11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="E11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="F11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="G11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="H11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="I11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="J11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="K11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="L11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="M11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="N11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="O11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="P11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Q11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="R11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="S11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="T11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="U11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="V11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="W11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="X11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Y11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="Z11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AA11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AB11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AC11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AD11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AE11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AF11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AG11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AH11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AI11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AJ11">
+        <f>Data!$A$6</f>
+        <v>0.50623017079495658</v>
+      </c>
+      <c r="AK11">
         <f>Data!$A$6</f>
         <v>0.50623017079495658</v>
       </c>
